--- a/biology/Histoire de la zoologie et de la botanique/Louis_Jules_Ernest_Malinvaud/Louis_Jules_Ernest_Malinvaud.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Jules_Ernest_Malinvaud/Louis_Jules_Ernest_Malinvaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Jules Ernest Malinvaud est un médecin et un botaniste français né le 26 septembre 1836 à Paris et mort le 22 septembre 1913 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Orphelin de bonne heure, il est élevé par sa grand-mère maternelle puis par une autre de ses parentes. Il fait ses études à Limoges et devient bachelier ès-lettres et ès-sciences en 1854. Intéressé par la botanique, il noue des relations avec des botanistes de la région dont Pierre Marie Edouard Lamy de la Chapelle (1804-1886).
 En 1860, il entre à l’école de médecine de Limoges avant de venir à Paris en 1863 poursuivre ses études à Paris. Mais il interrompt ses études avant d’être diplômé docteur. Après avoir servi comme médecin durant la guerre de 1870, il abandonne la pratique médicale pour se consacrer entièrement à la botanique ainsi qu’à la Société botanique de France, dont il est président en 1906. Il fait paraître de très nombreuses publications sur la flore française.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>François Pellegrin (1954), « Un siècle de Société de botanique de France », Bulletin de la Société botanique de France, supplément au n° 101 : 17-46.</t>
         </is>
